--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -1359,8 +1359,8 @@
       <x:c r="A11" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B11" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="2" t="b">
         <x:v>0</x:v>
@@ -1376,8 +1376,8 @@
       <x:c r="A12" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B12" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="2" t="b">
         <x:v>0</x:v>
@@ -1393,8 +1393,8 @@
       <x:c r="A13" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B13" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="2" t="b">
         <x:v>0</x:v>
@@ -1410,8 +1410,8 @@
       <x:c r="A14" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B14" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C14" s="2" t="b">
         <x:v>0</x:v>
@@ -1427,8 +1427,8 @@
       <x:c r="A15" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B15" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C15" s="2" t="b">
         <x:v>0</x:v>
@@ -1444,8 +1444,8 @@
       <x:c r="A16" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B16" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="2" t="b">
         <x:v>0</x:v>
@@ -1461,8 +1461,8 @@
       <x:c r="A17" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B17" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C17" s="2" t="b">
         <x:v>0</x:v>
@@ -1478,8 +1478,8 @@
       <x:c r="A18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B18" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C18" s="2" t="b">
         <x:v>0</x:v>
@@ -1495,8 +1495,8 @@
       <x:c r="A19" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B19" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C19" s="2" t="b">
         <x:v>0</x:v>
@@ -1512,8 +1512,8 @@
       <x:c r="A20" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B20" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="2" t="b">
         <x:v>0</x:v>
@@ -1529,8 +1529,8 @@
       <x:c r="A21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B21" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C21" s="2" t="b">
         <x:v>0</x:v>
@@ -1546,8 +1546,8 @@
       <x:c r="A22" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B22" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C22" s="2" t="b">
         <x:v>0</x:v>
@@ -1563,8 +1563,8 @@
       <x:c r="A23" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B23" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C23" s="2" t="b">
         <x:v>0</x:v>
@@ -1580,8 +1580,8 @@
       <x:c r="A24" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B24" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="2" t="b">
         <x:v>0</x:v>

--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -1365,11 +1365,11 @@
       <x:c r="C11" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D11" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,11 +1382,11 @@
       <x:c r="C12" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D12" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,11 +1399,11 @@
       <x:c r="C13" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D13" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,11 +1416,11 @@
       <x:c r="C14" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E14" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D14" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,11 +1433,11 @@
       <x:c r="C15" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D15" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,11 +1450,11 @@
       <x:c r="C16" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E16" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D16" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,11 +1467,11 @@
       <x:c r="C17" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D17" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,11 +1484,11 @@
       <x:c r="C18" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E18" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D18" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,11 +1501,11 @@
       <x:c r="C19" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D19" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,11 +1518,11 @@
       <x:c r="C20" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E20" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D20" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,11 +1535,11 @@
       <x:c r="C21" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E21" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D21" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,11 +1552,11 @@
       <x:c r="C22" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E22" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D22" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,11 +1569,11 @@
       <x:c r="C23" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E23" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D23" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,11 +1586,11 @@
       <x:c r="C24" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E24" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D24" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E24" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -1212,11 +1212,11 @@
       <x:c r="C2" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D2" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,11 +1229,11 @@
       <x:c r="C3" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D3" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,11 +1246,11 @@
       <x:c r="C4" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D4" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,11 +1263,11 @@
       <x:c r="C5" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D5" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,11 +1280,11 @@
       <x:c r="C6" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D6" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,11 +1297,11 @@
       <x:c r="C7" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,11 +1314,11 @@
       <x:c r="C8" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D8" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,11 +1331,11 @@
       <x:c r="C9" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D9" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,11 +1348,11 @@
       <x:c r="C10" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E10" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="D10" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application-User Acceptance Testing/Connected Office Test Data.xlsx
@@ -1209,8 +1209,8 @@
       <x:c r="B2" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C2" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
         <x:v>75</x:v>
@@ -1226,8 +1226,8 @@
       <x:c r="B3" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C3" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
         <x:v>75</x:v>
@@ -1243,8 +1243,8 @@
       <x:c r="B4" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C4" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
         <x:v>75</x:v>
@@ -1260,8 +1260,8 @@
       <x:c r="B5" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C5" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>75</x:v>
@@ -1277,8 +1277,8 @@
       <x:c r="B6" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C6" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
         <x:v>75</x:v>
@@ -1294,8 +1294,8 @@
       <x:c r="B7" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C7" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>75</x:v>
@@ -1311,8 +1311,8 @@
       <x:c r="B8" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C8" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>75</x:v>
@@ -1328,8 +1328,8 @@
       <x:c r="B9" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C9" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
         <x:v>75</x:v>
@@ -1345,8 +1345,8 @@
       <x:c r="B10" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C10" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
         <x:v>75</x:v>
@@ -1362,8 +1362,8 @@
       <x:c r="B11" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C11" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
         <x:v>75</x:v>
@@ -1379,8 +1379,8 @@
       <x:c r="B12" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C12" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
         <x:v>75</x:v>
@@ -1396,8 +1396,8 @@
       <x:c r="B13" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C13" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
         <x:v>75</x:v>
@@ -1413,8 +1413,8 @@
       <x:c r="B14" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C14" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
         <x:v>75</x:v>
@@ -1430,8 +1430,8 @@
       <x:c r="B15" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C15" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
         <x:v>75</x:v>
@@ -1447,8 +1447,8 @@
       <x:c r="B16" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C16" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
         <x:v>75</x:v>
@@ -1464,8 +1464,8 @@
       <x:c r="B17" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C17" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
         <x:v>75</x:v>
@@ -1481,8 +1481,8 @@
       <x:c r="B18" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C18" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
         <x:v>75</x:v>
@@ -1498,8 +1498,8 @@
       <x:c r="B19" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C19" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
         <x:v>75</x:v>
@@ -1515,8 +1515,8 @@
       <x:c r="B20" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C20" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
         <x:v>75</x:v>
@@ -1532,8 +1532,8 @@
       <x:c r="B21" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C21" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
         <x:v>75</x:v>
@@ -1549,8 +1549,8 @@
       <x:c r="B22" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C22" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
         <x:v>75</x:v>
@@ -1566,8 +1566,8 @@
       <x:c r="B23" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C23" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
         <x:v>75</x:v>
@@ -1583,8 +1583,8 @@
       <x:c r="B24" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C24" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
         <x:v>75</x:v>
